--- a/Team-Data/2008-09/4-12-2008-09.xlsx
+++ b/Team-Data/2008-09/4-12-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -774,13 +841,13 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>16</v>
       </c>
       <c r="AP2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -798,13 +865,13 @@
         <v>19</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
@@ -816,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -851,25 +918,25 @@
         <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.747</v>
+        <v>0.759</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J3" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.485</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -878,16 +945,16 @@
         <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.395</v>
+        <v>0.394</v>
       </c>
       <c r="O3" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
@@ -896,19 +963,19 @@
         <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -917,16 +984,16 @@
         <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -953,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN3" t="n">
         <v>1</v>
@@ -962,10 +1029,10 @@
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -980,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1129,13 +1196,13 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
       </c>
       <c r="AM4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
         <v>14</v>
@@ -1153,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
@@ -1162,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
@@ -1245,64 +1312,64 @@
         <v>0.384</v>
       </c>
       <c r="O5" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>20.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
         <v>16</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>15</v>
       </c>
       <c r="AG5" t="n">
         <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,19 +1378,19 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1332,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
         <v>15</v>
@@ -1347,7 +1414,7 @@
         <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1356,7 +1423,7 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -1397,34 +1464,34 @@
         <v>79</v>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.823</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
         <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.394</v>
+        <v>0.39</v>
       </c>
       <c r="O6" t="n">
         <v>18.5</v>
@@ -1442,22 +1509,22 @@
         <v>31.4</v>
       </c>
       <c r="T6" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
         <v>12.6</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
         <v>20.1</v>
@@ -1466,13 +1533,13 @@
         <v>20.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1496,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
@@ -1508,10 +1575,10 @@
         <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
         <v>19</v>
@@ -1520,10 +1587,10 @@
         <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV6" t="n">
         <v>4</v>
@@ -1535,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="n">
         <v>48</v>
       </c>
       <c r="F7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.608</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J7" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K7" t="n">
         <v>0.462</v>
@@ -1606,16 +1673,16 @@
         <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O7" t="n">
         <v>18.5</v>
       </c>
       <c r="P7" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>11.2</v>
@@ -1648,22 +1715,22 @@
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
         <v>14</v>
@@ -1678,19 +1745,19 @@
         <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>8</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ7" t="n">
         <v>2</v>
@@ -1708,19 +1775,19 @@
         <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
         <v>8</v>
       </c>
       <c r="AY7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>5</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>4</v>
       </c>
       <c r="BA7" t="n">
         <v>24</v>
@@ -1729,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="BC7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1848,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
         <v>10</v>
@@ -1881,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>17</v>
@@ -2030,7 +2097,7 @@
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2078,13 +2145,13 @@
         <v>29</v>
       </c>
       <c r="AX9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>19</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>18</v>
       </c>
       <c r="BA9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2254,7 +2321,7 @@
         <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>4</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>24</v>
@@ -2433,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>16</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>18</v>
@@ -2576,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2597,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
         <v>24</v>
@@ -2618,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW12" t="n">
         <v>23</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2776,13 +2843,13 @@
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2935,7 @@
         <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2877,13 +2944,13 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.356</v>
+        <v>0.36</v>
       </c>
       <c r="O14" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P14" t="n">
         <v>25.6</v>
@@ -2898,13 +2965,13 @@
         <v>31.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
         <v>23.1</v>
       </c>
       <c r="V14" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
         <v>8.699999999999999</v>
@@ -2919,16 +2986,16 @@
         <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -2955,10 +3022,10 @@
         <v>16</v>
       </c>
       <c r="AM14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>11</v>
@@ -2985,19 +3052,19 @@
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>15</v>
       </c>
-      <c r="AZ14" t="n">
-        <v>16</v>
-      </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -3032,49 +3099,49 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" t="n">
         <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" t="n">
-        <v>0.288</v>
+        <v>0.291</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J15" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M15" t="n">
         <v>13.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O15" t="n">
         <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q15" t="n">
         <v>0.756</v>
       </c>
       <c r="R15" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S15" t="n">
         <v>28.4</v>
@@ -3086,7 +3153,7 @@
         <v>17.3</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
         <v>7.5</v>
@@ -3104,19 +3171,19 @@
         <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.6</v>
+        <v>-5.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
         <v>26</v>
@@ -3128,7 +3195,7 @@
         <v>30</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK15" t="n">
         <v>22</v>
@@ -3140,13 +3207,13 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
@@ -3167,16 +3234,16 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
         <v>26</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="n">
         <v>38</v>
       </c>
       <c r="G16" t="n">
-        <v>0.525</v>
+        <v>0.519</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J16" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M16" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="O16" t="n">
         <v>17.4</v>
@@ -3253,16 +3320,16 @@
         <v>23</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R16" t="n">
         <v>10</v>
       </c>
       <c r="S16" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T16" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="U16" t="n">
         <v>20.4</v>
@@ -3271,10 +3338,10 @@
         <v>12.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
         <v>4.1</v>
@@ -3283,16 +3350,16 @@
         <v>20.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3304,25 +3371,25 @@
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM16" t="n">
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
@@ -3331,7 +3398,7 @@
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
@@ -3355,19 +3422,19 @@
         <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>33</v>
       </c>
       <c r="F17" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="n">
-        <v>0.418</v>
+        <v>0.413</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,7 +3484,7 @@
         <v>82.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L17" t="n">
         <v>6.2</v>
@@ -3426,25 +3493,25 @@
         <v>17.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
         <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
         <v>11.8</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U17" t="n">
         <v>21.8</v>
@@ -3462,19 +3529,19 @@
         <v>4.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
@@ -3510,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>20</v>
@@ -3528,10 +3595,10 @@
         <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3546,10 +3613,10 @@
         <v>5</v>
       </c>
       <c r="BB17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,10 +3735,10 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3683,7 +3750,7 @@
         <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN18" t="n">
         <v>25</v>
@@ -3698,7 +3765,7 @@
         <v>15</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS18" t="n">
         <v>18</v>
@@ -3707,13 +3774,13 @@
         <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>17</v>
       </c>
       <c r="AW18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX18" t="n">
         <v>28</v>
@@ -3722,7 +3789,7 @@
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -3838,31 +3905,31 @@
         <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
         <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>3</v>
@@ -3898,10 +3965,10 @@
         <v>24</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" t="n">
         <v>31</v>
       </c>
       <c r="G20" t="n">
-        <v>0.613</v>
+        <v>0.608</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J20" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
         <v>6.8</v>
@@ -3975,25 +4042,25 @@
         <v>0.365</v>
       </c>
       <c r="O20" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V20" t="n">
         <v>12.6</v>
@@ -4014,13 +4081,13 @@
         <v>20.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
@@ -4032,7 +4099,7 @@
         <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>13</v>
@@ -4056,13 +4123,13 @@
         <v>23</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
       </c>
       <c r="AR20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS20" t="n">
         <v>16</v>
@@ -4071,7 +4138,7 @@
         <v>25</v>
       </c>
       <c r="AU20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="n">
         <v>31</v>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" t="n">
-        <v>0.383</v>
+        <v>0.388</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4154,7 +4221,7 @@
         <v>27.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O21" t="n">
         <v>18.2</v>
@@ -4163,22 +4230,22 @@
         <v>23.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R21" t="n">
         <v>11.1</v>
       </c>
       <c r="S21" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T21" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W21" t="n">
         <v>7.4</v>
@@ -4190,16 +4257,16 @@
         <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA21" t="n">
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -4208,13 +4275,13 @@
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4250,25 +4317,25 @@
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
         <v>11</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4396,10 +4463,10 @@
         <v>27</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4420,7 +4487,7 @@
         <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ22" t="n">
         <v>9</v>
@@ -4435,13 +4502,13 @@
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>6.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI23" t="n">
         <v>27</v>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" t="n">
         <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4691,7 +4758,7 @@
         <v>79.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L24" t="n">
         <v>4.2</v>
@@ -4700,25 +4767,25 @@
         <v>13.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="O24" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P24" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R24" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S24" t="n">
         <v>28.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U24" t="n">
         <v>20.1</v>
@@ -4730,25 +4797,25 @@
         <v>8</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
         <v>20.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4766,10 +4833,10 @@
         <v>17</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4799,10 +4866,10 @@
         <v>17</v>
       </c>
       <c r="AU24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
@@ -4823,7 +4890,7 @@
         <v>22</v>
       </c>
       <c r="BC24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4996,7 +5063,7 @@
         <v>10</v>
       </c>
       <c r="AZ25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" t="n">
         <v>52</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.658</v>
+        <v>0.65</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
       </c>
       <c r="M26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N26" t="n">
         <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
@@ -5088,7 +5155,7 @@
         <v>20.2</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
@@ -5103,22 +5170,22 @@
         <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
         <v>6</v>
@@ -5148,10 +5215,10 @@
         <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,13 +5230,13 @@
         <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>8</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>13</v>
@@ -5178,10 +5245,10 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2</v>
+        <v>0.203</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5246,16 +5313,16 @@
         <v>19.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O27" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P27" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.8</v>
+        <v>0.799</v>
       </c>
       <c r="R27" t="n">
         <v>10.3</v>
@@ -5264,13 +5331,13 @@
         <v>28.8</v>
       </c>
       <c r="T27" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="U27" t="n">
         <v>19.7</v>
       </c>
       <c r="V27" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W27" t="n">
         <v>6.9</v>
@@ -5285,16 +5352,16 @@
         <v>23.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5309,7 +5376,7 @@
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
         <v>11</v>
@@ -5324,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5339,13 +5406,13 @@
         <v>24</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
         <v>29</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV27" t="n">
         <v>26</v>
@@ -5360,10 +5427,10 @@
         <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" t="n">
         <v>28</v>
       </c>
       <c r="G28" t="n">
-        <v>0.65</v>
+        <v>0.646</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J28" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K28" t="n">
         <v>0.466</v>
@@ -5434,19 +5501,19 @@
         <v>15.2</v>
       </c>
       <c r="P28" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
         <v>32</v>
       </c>
       <c r="T28" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U28" t="n">
         <v>21.2</v>
@@ -5476,22 +5543,22 @@
         <v>3.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF28" t="n">
         <v>6</v>
       </c>
-      <c r="AF28" t="n">
-        <v>7</v>
-      </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>21</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" t="n">
         <v>49</v>
       </c>
       <c r="G29" t="n">
-        <v>0.388</v>
+        <v>0.38</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5601,7 +5668,7 @@
         <v>81.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
         <v>5.9</v>
@@ -5610,25 +5677,25 @@
         <v>15.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O29" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P29" t="n">
         <v>22.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.826</v>
+        <v>0.825</v>
       </c>
       <c r="R29" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
         <v>22.2</v>
@@ -5637,37 +5704,37 @@
         <v>13.4</v>
       </c>
       <c r="W29" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y29" t="n">
         <v>4.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA29" t="n">
         <v>20.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3</v>
+        <v>-3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>14</v>
@@ -5679,22 +5746,22 @@
         <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
         <v>24</v>
       </c>
       <c r="AM29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
         <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT29" t="n">
         <v>21</v>
@@ -5715,10 +5782,10 @@
         <v>10</v>
       </c>
       <c r="AW29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>2.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
@@ -5852,7 +5919,7 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>11</v>
@@ -5897,7 +5964,7 @@
         <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30" t="n">
         <v>21</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6061,7 +6128,7 @@
         <v>20</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6073,25 +6140,25 @@
         <v>23</v>
       </c>
       <c r="AU31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
       </c>
       <c r="AY31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-12-2008-09</t>
+          <t>2009-04-12</t>
         </is>
       </c>
     </row>
